--- a/parabolic/2025/09/09/parabolic.xlsx
+++ b/parabolic/2025/09/09/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D2" t="n">
-        <v>214500</v>
+        <v>308000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>291.1000061035156</v>
+        <v>289.7999877929688</v>
       </c>
       <c r="D3" t="n">
-        <v>1251900</v>
+        <v>2537100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="D4" t="n">
-        <v>523900</v>
+        <v>1031100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D5" t="n">
-        <v>111200</v>
+        <v>150200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D6" t="n">
-        <v>1313800</v>
+        <v>1906000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="D7" t="n">
-        <v>1732100</v>
+        <v>111600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4552</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>662</v>
+        <v>528</v>
       </c>
       <c r="D8" t="n">
-        <v>256000</v>
+        <v>2221700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>4552</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>374</v>
+        <v>658</v>
       </c>
       <c r="D9" t="n">
-        <v>643400</v>
+        <v>389200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>4767</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>843</v>
+        <v>387</v>
       </c>
       <c r="D10" t="n">
-        <v>220200</v>
+        <v>106300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9564</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,85 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>811</v>
+        <v>378</v>
       </c>
       <c r="D11" t="n">
-        <v>115200</v>
+        <v>805000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>843</v>
+      </c>
+      <c r="D12" t="n">
+        <v>310400</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>225</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26011200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9564</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>801</v>
+      </c>
+      <c r="D14" t="n">
+        <v>145900</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/09/parabolic.xlsx
+++ b/parabolic/2025/09/09/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" t="n">
-        <v>308000</v>
+        <v>366100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>289.7999877929688</v>
+        <v>289</v>
       </c>
       <c r="D3" t="n">
-        <v>2537100</v>
+        <v>3094200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D4" t="n">
-        <v>1031100</v>
+        <v>1254400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D5" t="n">
-        <v>150200</v>
+        <v>211300</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>577</v>
+        <v>955</v>
       </c>
       <c r="D6" t="n">
-        <v>1906000</v>
+        <v>115500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4237</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="D7" t="n">
-        <v>111600</v>
+        <v>2314000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>528</v>
+        <v>334</v>
       </c>
       <c r="D8" t="n">
-        <v>2221700</v>
+        <v>136400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4552</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>658</v>
+        <v>531</v>
       </c>
       <c r="D9" t="n">
-        <v>389200</v>
+        <v>2475300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4767</t>
+          <t>4552</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>387</v>
+        <v>653</v>
       </c>
       <c r="D10" t="n">
-        <v>106300</v>
+        <v>488900</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>4650</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="D11" t="n">
-        <v>805000</v>
+        <v>399100</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>4767</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>843</v>
+        <v>385</v>
       </c>
       <c r="D12" t="n">
-        <v>310400</v>
+        <v>135000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c r="D13" t="n">
-        <v>26011200</v>
+        <v>852900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9564</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,154 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>801</v>
+        <v>697</v>
       </c>
       <c r="D14" t="n">
-        <v>145900</v>
+        <v>113400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>886</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>829</v>
+      </c>
+      <c r="D16" t="n">
+        <v>387300</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>956</v>
+      </c>
+      <c r="D17" t="n">
+        <v>103600</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>238</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28504600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>737</v>
+      </c>
+      <c r="D19" t="n">
+        <v>103700</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9564</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>794</v>
+      </c>
+      <c r="D20" t="n">
+        <v>174900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/09/parabolic.xlsx
+++ b/parabolic/2025/09/09/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D2" t="n">
-        <v>366100</v>
+        <v>460300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>289</v>
+        <v>291.2000122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>3094200</v>
+        <v>6563800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D4" t="n">
-        <v>1254400</v>
+        <v>1534500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D5" t="n">
-        <v>211300</v>
+        <v>336200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="D6" t="n">
-        <v>115500</v>
+        <v>135300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D7" t="n">
-        <v>2314000</v>
+        <v>2780400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D8" t="n">
-        <v>136400</v>
+        <v>158000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D9" t="n">
-        <v>2475300</v>
+        <v>3010100</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>653</v>
       </c>
       <c r="D10" t="n">
-        <v>488900</v>
+        <v>645300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D11" t="n">
-        <v>399100</v>
+        <v>465900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>385</v>
       </c>
       <c r="D12" t="n">
-        <v>135000</v>
+        <v>168800</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D13" t="n">
-        <v>852900</v>
+        <v>879500</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>4977</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>697</v>
+        <v>997</v>
       </c>
       <c r="D14" t="n">
-        <v>113400</v>
+        <v>102100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>886</v>
+        <v>690</v>
       </c>
       <c r="D15" t="n">
-        <v>129600</v>
+        <v>134500</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>829</v>
+        <v>889</v>
       </c>
       <c r="D16" t="n">
-        <v>387300</v>
+        <v>249000</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6620</t>
+          <t>6194</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>956</v>
+        <v>835</v>
       </c>
       <c r="D17" t="n">
-        <v>103600</v>
+        <v>457400</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>6574</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D18" t="n">
-        <v>28504600</v>
+        <v>389300</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>9517</t>
+          <t>6620</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>737</v>
+        <v>951</v>
       </c>
       <c r="D19" t="n">
-        <v>103700</v>
+        <v>127800</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>9564</t>
+          <t>7455</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,16 +896,85 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>794</v>
+        <v>438</v>
       </c>
       <c r="D20" t="n">
-        <v>174900</v>
+        <v>3053600</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>238</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28716400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9517</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>743</v>
+      </c>
+      <c r="D22" t="n">
+        <v>169600</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>9564</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>793</v>
+      </c>
+      <c r="D23" t="n">
+        <v>232100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
